--- a/03_CarryTask/02_Data_clean/FED_Fund_rate_Upper_bound.xlsx
+++ b/03_CarryTask/02_Data_clean/FED_Fund_rate_Upper_bound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Dropbox/00 UZH/Master/PMP/01. Offline PMP/PMP Coding/Vitznau/03_CarryTask/02_Data_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corinne Vogel\Documents\UZH\Master 1. Semester\Portfolio Management Theory I\Task_4\2_Code\03_CarryTask\02_Data_clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96F97384-2A60-A148-8D9E-A03B85BD9E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72DD38F-6937-41A6-83B9-92C44D374A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5940" windowWidth="27640" windowHeight="16860" xr2:uid="{3A7AD394-05AE-E34C-A7C8-DAFCF028FBA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A7AD394-05AE-E34C-A7C8-DAFCF028FBA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>FDTR Index</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -394,2224 +397,3333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1610F809-5404-C946-AD89-3A4A0A69156E}">
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:B276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>36556</v>
       </c>
       <c r="B2">
+        <f>C2/100</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="C2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>36585</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">C3/100</f>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="C3">
         <v>5.75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>36616</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>36644</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>36677</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C6">
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>36707</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>36738</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C8">
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>36769</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C9">
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>36798</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C10">
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>36830</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C11">
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>36860</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C12">
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>36889</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>36922</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="C14">
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>36950</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="C15">
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>36980</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37011</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C17">
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37042</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>37071</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C19">
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>37103</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C20">
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37134</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C21">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>37162</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>37195</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C23">
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37225</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37256</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C25">
         <v>1.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37287</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C26">
         <v>1.75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37315</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C27">
         <v>1.75</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37344</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C28">
         <v>1.75</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37376</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C29">
         <v>1.75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37407</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C30">
         <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>37435</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C31">
         <v>1.75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>37468</v>
       </c>
       <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C32">
         <v>1.75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>37498</v>
       </c>
       <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C33">
         <v>1.75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37529</v>
       </c>
       <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C34">
         <v>1.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>37560</v>
       </c>
       <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C35">
         <v>1.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37589</v>
       </c>
       <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C36">
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37621</v>
       </c>
       <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C37">
         <v>1.25</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37652</v>
       </c>
       <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C38">
         <v>1.25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37680</v>
       </c>
       <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C39">
         <v>1.25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37711</v>
       </c>
       <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C40">
         <v>1.25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37741</v>
       </c>
       <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C41">
         <v>1.25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>37771</v>
       </c>
       <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C42">
         <v>1.25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>37802</v>
       </c>
       <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>37833</v>
       </c>
       <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>37862</v>
       </c>
       <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>37894</v>
       </c>
       <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>37925</v>
       </c>
       <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>37953</v>
       </c>
       <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>37986</v>
       </c>
       <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>38016</v>
       </c>
       <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>38044</v>
       </c>
       <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>38077</v>
       </c>
       <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>38107</v>
       </c>
       <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38138</v>
       </c>
       <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>38168</v>
       </c>
       <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C55">
         <v>1.25</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>38198</v>
       </c>
       <c r="B56">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C56">
         <v>1.25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>38230</v>
       </c>
       <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C57">
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>38260</v>
       </c>
       <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C58">
         <v>1.75</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>38289</v>
       </c>
       <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C59">
         <v>1.75</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>38321</v>
       </c>
       <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>38352</v>
       </c>
       <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C61">
         <v>2.25</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>38383</v>
       </c>
       <c r="B62">
+        <f t="shared" si="0"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C62">
         <v>2.25</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>38411</v>
       </c>
       <c r="B63">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C63">
         <v>2.5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>38442</v>
       </c>
       <c r="B64">
+        <f t="shared" si="0"/>
+        <v>2.75E-2</v>
+      </c>
+      <c r="C64">
         <v>2.75</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>38471</v>
       </c>
       <c r="B65">
+        <f t="shared" si="0"/>
+        <v>2.75E-2</v>
+      </c>
+      <c r="C65">
         <v>2.75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>38503</v>
       </c>
       <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="C66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>38533</v>
       </c>
       <c r="B67">
+        <f t="shared" ref="B67:B130" si="1">C67/100</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C67">
         <v>3.25</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>38562</v>
       </c>
       <c r="B68">
+        <f t="shared" si="1"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C68">
         <v>3.25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>38595</v>
       </c>
       <c r="B69">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C69">
         <v>3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>38625</v>
       </c>
       <c r="B70">
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C70">
         <v>3.75</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>38656</v>
       </c>
       <c r="B71">
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C71">
         <v>3.75</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>38686</v>
       </c>
       <c r="B72">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="C72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>38716</v>
       </c>
       <c r="B73">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C73">
         <v>4.25</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>38748</v>
       </c>
       <c r="B74">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C74">
         <v>4.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>38776</v>
       </c>
       <c r="B75">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C75">
         <v>4.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>38807</v>
       </c>
       <c r="B76">
+        <f t="shared" si="1"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C76">
         <v>4.75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>38835</v>
       </c>
       <c r="B77">
+        <f t="shared" si="1"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C77">
         <v>4.75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>38868</v>
       </c>
       <c r="B78">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="C78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>38898</v>
       </c>
       <c r="B79">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C79">
         <v>5.25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>38929</v>
       </c>
       <c r="B80">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C80">
         <v>5.25</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>38960</v>
       </c>
       <c r="B81">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C81">
         <v>5.25</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>38989</v>
       </c>
       <c r="B82">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C82">
         <v>5.25</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>39021</v>
       </c>
       <c r="B83">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C83">
         <v>5.25</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>39051</v>
       </c>
       <c r="B84">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C84">
         <v>5.25</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>39080</v>
       </c>
       <c r="B85">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C85">
         <v>5.25</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>39113</v>
       </c>
       <c r="B86">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C86">
         <v>5.25</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>39141</v>
       </c>
       <c r="B87">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C87">
         <v>5.25</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>39171</v>
       </c>
       <c r="B88">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C88">
         <v>5.25</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>39202</v>
       </c>
       <c r="B89">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C89">
         <v>5.25</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>39233</v>
       </c>
       <c r="B90">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C90">
         <v>5.25</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>39262</v>
       </c>
       <c r="B91">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C91">
         <v>5.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>39294</v>
       </c>
       <c r="B92">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C92">
         <v>5.25</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>39325</v>
       </c>
       <c r="B93">
+        <f t="shared" si="1"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C93">
         <v>5.25</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>39353</v>
       </c>
       <c r="B94">
+        <f t="shared" si="1"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C94">
         <v>4.75</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>39386</v>
       </c>
       <c r="B95">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C95">
         <v>4.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>39416</v>
       </c>
       <c r="B96">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C96">
         <v>4.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>39447</v>
       </c>
       <c r="B97">
+        <f t="shared" si="1"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C97">
         <v>4.25</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>39478</v>
       </c>
       <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="C98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>39507</v>
       </c>
       <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="C99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>39538</v>
       </c>
       <c r="B100">
+        <f t="shared" si="1"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C100">
         <v>2.25</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>39568</v>
       </c>
       <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>39598</v>
       </c>
       <c r="B102">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>39629</v>
       </c>
       <c r="B103">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>39660</v>
       </c>
       <c r="B104">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C104">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>39689</v>
       </c>
       <c r="B105">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>39721</v>
       </c>
       <c r="B106">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>39752</v>
       </c>
       <c r="B107">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>39780</v>
       </c>
       <c r="B108">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>39813</v>
       </c>
       <c r="B109">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C109">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>39843</v>
       </c>
       <c r="B110">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>39871</v>
       </c>
       <c r="B111">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C111">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>39903</v>
       </c>
       <c r="B112">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C112">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>39933</v>
       </c>
       <c r="B113">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C113">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>39962</v>
       </c>
       <c r="B114">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C114">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>39994</v>
       </c>
       <c r="B115">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C115">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>40025</v>
       </c>
       <c r="B116">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C116">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>40056</v>
       </c>
       <c r="B117">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C117">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>40086</v>
       </c>
       <c r="B118">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C118">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>40116</v>
       </c>
       <c r="B119">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C119">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>40147</v>
       </c>
       <c r="B120">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C120">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>40178</v>
       </c>
       <c r="B121">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C121">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>40207</v>
       </c>
       <c r="B122">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C122">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>40235</v>
       </c>
       <c r="B123">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C123">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>40268</v>
       </c>
       <c r="B124">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C124">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>40298</v>
       </c>
       <c r="B125">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C125">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>40329</v>
       </c>
       <c r="B126">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C126">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>40359</v>
       </c>
       <c r="B127">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C127">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>40389</v>
       </c>
       <c r="B128">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C128">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>40421</v>
       </c>
       <c r="B129">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C129">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>40451</v>
       </c>
       <c r="B130">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>40480</v>
       </c>
       <c r="B131">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B131:B194" si="2">C131/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C131">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>40512</v>
       </c>
       <c r="B132">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C132">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>40543</v>
       </c>
       <c r="B133">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C133">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>40574</v>
       </c>
       <c r="B134">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C134">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>40602</v>
       </c>
       <c r="B135">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C135">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>40633</v>
       </c>
       <c r="B136">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C136">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>40662</v>
       </c>
       <c r="B137">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C137">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>40694</v>
       </c>
       <c r="B138">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C138">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>40724</v>
       </c>
       <c r="B139">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C139">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>40753</v>
       </c>
       <c r="B140">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C140">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>40786</v>
       </c>
       <c r="B141">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C141">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>40816</v>
       </c>
       <c r="B142">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C142">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>40847</v>
       </c>
       <c r="B143">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C143">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>40877</v>
       </c>
       <c r="B144">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C144">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>40907</v>
       </c>
       <c r="B145">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C145">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>40939</v>
       </c>
       <c r="B146">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C146">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>40968</v>
       </c>
       <c r="B147">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C147">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>40998</v>
       </c>
       <c r="B148">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C148">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41029</v>
       </c>
       <c r="B149">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C149">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41060</v>
       </c>
       <c r="B150">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C150">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41089</v>
       </c>
       <c r="B151">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C151">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>41121</v>
       </c>
       <c r="B152">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C152">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>41152</v>
       </c>
       <c r="B153">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C153">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>41180</v>
       </c>
       <c r="B154">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C154">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>41213</v>
       </c>
       <c r="B155">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C155">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>41243</v>
       </c>
       <c r="B156">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C156">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>41274</v>
       </c>
       <c r="B157">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C157">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>41305</v>
       </c>
       <c r="B158">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C158">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>41333</v>
       </c>
       <c r="B159">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C159">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>41362</v>
       </c>
       <c r="B160">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C160">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>41394</v>
       </c>
       <c r="B161">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C161">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>41425</v>
       </c>
       <c r="B162">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C162">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>41453</v>
       </c>
       <c r="B163">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C163">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>41486</v>
       </c>
       <c r="B164">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C164">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>41516</v>
       </c>
       <c r="B165">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C165">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>41547</v>
       </c>
       <c r="B166">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C166">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>41578</v>
       </c>
       <c r="B167">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C167">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>41607</v>
       </c>
       <c r="B168">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C168">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>41639</v>
       </c>
       <c r="B169">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C169">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>41670</v>
       </c>
       <c r="B170">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C170">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>41698</v>
       </c>
       <c r="B171">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C171">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>41729</v>
       </c>
       <c r="B172">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C172">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>41759</v>
       </c>
       <c r="B173">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C173">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>41789</v>
       </c>
       <c r="B174">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C174">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>41820</v>
       </c>
       <c r="B175">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C175">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>41851</v>
       </c>
       <c r="B176">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C176">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>41880</v>
       </c>
       <c r="B177">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C177">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>41912</v>
       </c>
       <c r="B178">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C178">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>41943</v>
       </c>
       <c r="B179">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C179">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>41971</v>
       </c>
       <c r="B180">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C180">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42004</v>
       </c>
       <c r="B181">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C181">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42034</v>
       </c>
       <c r="B182">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C182">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42062</v>
       </c>
       <c r="B183">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C183">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42094</v>
       </c>
       <c r="B184">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C184">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42124</v>
       </c>
       <c r="B185">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C185">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42153</v>
       </c>
       <c r="B186">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C186">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42185</v>
       </c>
       <c r="B187">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C187">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42216</v>
       </c>
       <c r="B188">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C188">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42247</v>
       </c>
       <c r="B189">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C189">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42277</v>
       </c>
       <c r="B190">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C190">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42307</v>
       </c>
       <c r="B191">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C191">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42338</v>
       </c>
       <c r="B192">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C192">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42369</v>
       </c>
       <c r="B193">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C193">
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42398</v>
       </c>
       <c r="B194">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C194">
         <v>0.5</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42429</v>
       </c>
       <c r="B195">
+        <f t="shared" ref="B195:B258" si="3">C195/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C195">
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42460</v>
       </c>
       <c r="B196">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C196">
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42489</v>
       </c>
       <c r="B197">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C197">
         <v>0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42521</v>
       </c>
       <c r="B198">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C198">
         <v>0.5</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42551</v>
       </c>
       <c r="B199">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C199">
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42580</v>
       </c>
       <c r="B200">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C200">
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42613</v>
       </c>
       <c r="B201">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C201">
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42643</v>
       </c>
       <c r="B202">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C202">
         <v>0.5</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>42674</v>
       </c>
       <c r="B203">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C203">
         <v>0.5</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>42704</v>
       </c>
       <c r="B204">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C204">
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>42734</v>
       </c>
       <c r="B205">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C205">
         <v>0.75</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>42766</v>
       </c>
       <c r="B206">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C206">
         <v>0.75</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42794</v>
       </c>
       <c r="B207">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C207">
         <v>0.75</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42825</v>
       </c>
       <c r="B208">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42853</v>
       </c>
       <c r="B209">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42886</v>
       </c>
       <c r="B210">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42916</v>
       </c>
       <c r="B211">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C211">
         <v>1.25</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>42947</v>
       </c>
       <c r="B212">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C212">
         <v>1.25</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>42978</v>
       </c>
       <c r="B213">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C213">
         <v>1.25</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43007</v>
       </c>
       <c r="B214">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C214">
         <v>1.25</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43039</v>
       </c>
       <c r="B215">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C215">
         <v>1.25</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43069</v>
       </c>
       <c r="B216">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C216">
         <v>1.25</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43098</v>
       </c>
       <c r="B217">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C217">
         <v>1.5</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43131</v>
       </c>
       <c r="B218">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C218">
         <v>1.5</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43159</v>
       </c>
       <c r="B219">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C219">
         <v>1.5</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43189</v>
       </c>
       <c r="B220">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C220">
         <v>1.75</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43220</v>
       </c>
       <c r="B221">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C221">
         <v>1.75</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43251</v>
       </c>
       <c r="B222">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C222">
         <v>1.75</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43280</v>
       </c>
       <c r="B223">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="C223">
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43312</v>
       </c>
       <c r="B224">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="C224">
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>43343</v>
       </c>
       <c r="B225">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="C225">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>43371</v>
       </c>
       <c r="B226">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C226">
         <v>2.25</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>43404</v>
       </c>
       <c r="B227">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C227">
         <v>2.25</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>43434</v>
       </c>
       <c r="B228">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C228">
         <v>2.25</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>43465</v>
       </c>
       <c r="B229">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C229">
         <v>2.5</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>43496</v>
       </c>
       <c r="B230">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C230">
         <v>2.5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43524</v>
       </c>
       <c r="B231">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C231">
         <v>2.5</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>43553</v>
       </c>
       <c r="B232">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C232">
         <v>2.5</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43585</v>
       </c>
       <c r="B233">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C233">
         <v>2.5</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>43616</v>
       </c>
       <c r="B234">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C234">
         <v>2.5</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>43644</v>
       </c>
       <c r="B235">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C235">
         <v>2.5</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>43677</v>
       </c>
       <c r="B236">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C236">
         <v>2.25</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>43707</v>
       </c>
       <c r="B237">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C237">
         <v>2.25</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>43738</v>
       </c>
       <c r="B238">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="C238">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>43769</v>
       </c>
       <c r="B239">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C239">
         <v>1.75</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>43798</v>
       </c>
       <c r="B240">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C240">
         <v>1.75</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>43830</v>
       </c>
       <c r="B241">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C241">
         <v>1.75</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>43861</v>
       </c>
       <c r="B242">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C242">
         <v>1.75</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>43889</v>
       </c>
       <c r="B243">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C243">
         <v>1.75</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>43921</v>
       </c>
       <c r="B244">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C244">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>43951</v>
       </c>
       <c r="B245">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C245">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>43980</v>
       </c>
       <c r="B246">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C246">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44012</v>
       </c>
       <c r="B247">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C247">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44043</v>
       </c>
       <c r="B248">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C248">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44074</v>
       </c>
       <c r="B249">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C249">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44104</v>
       </c>
       <c r="B250">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C250">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44134</v>
       </c>
       <c r="B251">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C251">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44165</v>
       </c>
       <c r="B252">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C252">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44196</v>
       </c>
       <c r="B253">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C253">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44225</v>
       </c>
       <c r="B254">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C254">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44253</v>
       </c>
       <c r="B255">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C255">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44286</v>
       </c>
       <c r="B256">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C256">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44316</v>
       </c>
       <c r="B257">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C257">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44347</v>
       </c>
       <c r="B258">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C258">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44377</v>
       </c>
       <c r="B259">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B259:B276" si="4">C259/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C259">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44407</v>
       </c>
       <c r="B260">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C260">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44439</v>
       </c>
       <c r="B261">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C261">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44469</v>
       </c>
       <c r="B262">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C262">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44498</v>
       </c>
       <c r="B263">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C263">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44530</v>
       </c>
       <c r="B264">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C264">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44561</v>
       </c>
       <c r="B265">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C265">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44592</v>
       </c>
       <c r="B266">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C266">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44620</v>
       </c>
       <c r="B267">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C267">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44651</v>
       </c>
       <c r="B268">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C268">
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44680</v>
       </c>
       <c r="B269">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C269">
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44712</v>
       </c>
       <c r="B270">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="C270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44742</v>
       </c>
       <c r="B271">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C271">
         <v>1.75</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44771</v>
       </c>
       <c r="B272">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C272">
         <v>2.5</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44804</v>
       </c>
       <c r="B273">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C273">
         <v>2.5</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44834</v>
       </c>
       <c r="B274">
+        <f t="shared" si="4"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C274">
         <v>3.25</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44865</v>
       </c>
       <c r="B275">
+        <f t="shared" si="4"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C275">
         <v>3.25</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44895</v>
       </c>
       <c r="B276">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="C276">
         <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <f>AVERAGE(B2:B276)</f>
+        <v>1.7154545454545481E-2</v>
       </c>
     </row>
   </sheetData>
